--- a/Program_find_insert_file/Уралтест.xlsx
+++ b/Program_find_insert_file/Уралтест.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Уралтест!$A$3:$V$140</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1029,8 +1029,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1491,7 +1491,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1526,7 +1525,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1702,18 +1700,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U137" sqref="U137"/>
+      <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="5" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -1736,7 +1734,7 @@
     <col min="23" max="23" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" customHeight="1">
       <c r="A1" s="53" t="s">
         <v>3</v>
       </c>
@@ -1782,7 +1780,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="30" customHeight="1">
       <c r="A2" s="53"/>
       <c r="B2" s="58"/>
       <c r="C2" s="60"/>
@@ -1834,7 +1832,7 @@
       <c r="U2" s="55"/>
       <c r="V2" s="56"/>
     </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="14.25" customHeight="1">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -1890,7 +1888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="14.25" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>178</v>
       </c>
@@ -1916,7 +1914,7 @@
       <c r="U4" s="36"/>
       <c r="V4" s="37"/>
     </row>
-    <row r="5" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="30" outlineLevel="1">
       <c r="A5" s="25" t="s">
         <v>148</v>
       </c>
@@ -1963,7 +1961,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="30" outlineLevel="1">
       <c r="A6" s="13" t="s">
         <v>153</v>
       </c>
@@ -2014,7 +2012,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="30" outlineLevel="1">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2065,7 +2063,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="30" outlineLevel="1">
       <c r="A8" s="13" t="s">
         <v>56</v>
       </c>
@@ -2112,7 +2110,7 @@
       </c>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="30" outlineLevel="1">
       <c r="A9" s="13" t="s">
         <v>88</v>
       </c>
@@ -2163,7 +2161,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="30" outlineLevel="1">
       <c r="A10" s="13" t="s">
         <v>53</v>
       </c>
@@ -2214,7 +2212,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="30" outlineLevel="1">
       <c r="A11" s="26" t="s">
         <v>130</v>
       </c>
@@ -2263,7 +2261,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="45" outlineLevel="1">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="60" outlineLevel="1">
       <c r="A13" s="13" t="s">
         <v>144</v>
       </c>
@@ -2359,7 +2357,7 @@
       </c>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="60" customHeight="1" outlineLevel="1">
       <c r="A14" s="13" t="s">
         <v>67</v>
       </c>
@@ -2408,7 +2406,7 @@
       </c>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="30" outlineLevel="1">
       <c r="A15" s="13" t="s">
         <v>51</v>
       </c>
@@ -2459,7 +2457,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" outlineLevel="1">
       <c r="A16" s="13" t="s">
         <v>69</v>
       </c>
@@ -2508,7 +2506,7 @@
       </c>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="30" outlineLevel="1">
       <c r="A17" s="13" t="s">
         <v>63</v>
       </c>
@@ -2557,7 +2555,7 @@
       </c>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="45" outlineLevel="1">
       <c r="A18" s="25" t="s">
         <v>146</v>
       </c>
@@ -2604,7 +2602,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="30" outlineLevel="1">
       <c r="A19" s="13" t="s">
         <v>48</v>
       </c>
@@ -2655,7 +2653,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="45" customHeight="1" outlineLevel="1">
       <c r="A20" s="13" t="s">
         <v>104</v>
       </c>
@@ -2706,7 +2704,7 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:22" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="45" customHeight="1" outlineLevel="1">
       <c r="A21" s="13" t="s">
         <v>42</v>
       </c>
@@ -2763,7 +2761,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="30" outlineLevel="1">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -2814,7 +2812,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="30" outlineLevel="1">
       <c r="A23" s="13" t="s">
         <v>78</v>
       </c>
@@ -2865,7 +2863,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="30" outlineLevel="1">
       <c r="A24" s="13" t="s">
         <v>106</v>
       </c>
@@ -2918,7 +2916,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" outlineLevel="1">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,7 +2967,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" outlineLevel="1">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3020,7 +3018,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="30" outlineLevel="1">
       <c r="A27" s="13" t="s">
         <v>126</v>
       </c>
@@ -3072,7 +3070,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="30" outlineLevel="1">
       <c r="A28" s="2" t="s">
         <v>125</v>
       </c>
@@ -3126,7 +3124,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="30" outlineLevel="1">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -3177,7 +3175,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="30" outlineLevel="1">
       <c r="A30" s="13" t="s">
         <v>142</v>
       </c>
@@ -3224,7 +3222,7 @@
       </c>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="30" outlineLevel="1">
       <c r="A31" s="13" t="s">
         <v>169</v>
       </c>
@@ -3273,7 +3271,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -3324,7 +3322,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" outlineLevel="1">
       <c r="A33" s="13" t="s">
         <v>65</v>
       </c>
@@ -3371,7 +3369,7 @@
       </c>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="30" outlineLevel="1">
       <c r="A34" s="13" t="s">
         <v>71</v>
       </c>
@@ -3422,7 +3420,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="30" outlineLevel="1">
       <c r="A35" s="13" t="s">
         <v>59</v>
       </c>
@@ -3471,7 +3469,7 @@
       </c>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" outlineLevel="1">
       <c r="A36" s="13" t="s">
         <v>152</v>
       </c>
@@ -3522,7 +3520,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="30" outlineLevel="1">
       <c r="A37" s="13" t="s">
         <v>156</v>
       </c>
@@ -3573,7 +3571,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="30" outlineLevel="1">
       <c r="A38" s="13" t="s">
         <v>120</v>
       </c>
@@ -3624,7 +3622,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="30" outlineLevel="1">
       <c r="A39" s="13" t="s">
         <v>99</v>
       </c>
@@ -3675,7 +3673,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="30" outlineLevel="1">
       <c r="A40" s="13" t="s">
         <v>122</v>
       </c>
@@ -3726,7 +3724,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="30" outlineLevel="1">
       <c r="A41" s="13" t="s">
         <v>81</v>
       </c>
@@ -3777,7 +3775,7 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="30" outlineLevel="1">
       <c r="A42" s="13" t="s">
         <v>74</v>
       </c>
@@ -3828,7 +3826,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="60" outlineLevel="1">
       <c r="A43" s="13" t="s">
         <v>294</v>
       </c>
@@ -3875,7 +3873,7 @@
       </c>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" outlineLevel="1">
       <c r="A44" s="13" t="s">
         <v>138</v>
       </c>
@@ -3922,7 +3920,7 @@
       </c>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="30" outlineLevel="1">
       <c r="A45" s="13" t="s">
         <v>111</v>
       </c>
@@ -3973,7 +3971,7 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="30" outlineLevel="1">
       <c r="A46" s="13" t="s">
         <v>91</v>
       </c>
@@ -4024,7 +4022,7 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="30" outlineLevel="1">
       <c r="A47" s="13" t="s">
         <v>92</v>
       </c>
@@ -4075,7 +4073,7 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="30" outlineLevel="1">
       <c r="A48" s="13" t="s">
         <v>94</v>
       </c>
@@ -4126,7 +4124,7 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="30" outlineLevel="1">
       <c r="A49" s="13" t="s">
         <v>96</v>
       </c>
@@ -4177,7 +4175,7 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
     </row>
-    <row r="50" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="30" outlineLevel="1">
       <c r="A50" s="13" t="s">
         <v>114</v>
       </c>
@@ -4228,7 +4226,7 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
     </row>
-    <row r="51" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="30" outlineLevel="1">
       <c r="A51" s="13" t="s">
         <v>86</v>
       </c>
@@ -4279,7 +4277,7 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
     </row>
-    <row r="52" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="30" outlineLevel="1">
       <c r="A52" s="13" t="s">
         <v>118</v>
       </c>
@@ -4330,7 +4328,7 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
     </row>
-    <row r="53" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" outlineLevel="1">
       <c r="A53" s="17" t="s">
         <v>119</v>
       </c>
@@ -4381,7 +4379,7 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
     </row>
-    <row r="54" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" outlineLevel="1">
       <c r="A54" s="13" t="s">
         <v>159</v>
       </c>
@@ -4432,7 +4430,7 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="55" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" outlineLevel="1">
       <c r="A55" s="13" t="s">
         <v>158</v>
       </c>
@@ -4481,7 +4479,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="30" outlineLevel="1">
       <c r="A56" s="13" t="s">
         <v>83</v>
       </c>
@@ -4534,7 +4532,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="30" outlineLevel="1">
       <c r="A57" s="13" t="s">
         <v>116</v>
       </c>
@@ -4585,7 +4583,7 @@
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="58" spans="1:22" ht="46.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="46.5" customHeight="1" outlineLevel="1">
       <c r="A58" s="26" t="s">
         <v>133</v>
       </c>
@@ -4634,7 +4632,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="29.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="29.25" customHeight="1" outlineLevel="1">
       <c r="A59" s="13" t="s">
         <v>134</v>
       </c>
@@ -4685,7 +4683,7 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="1:22" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="28.5" customHeight="1" outlineLevel="1">
       <c r="A60" s="13" t="s">
         <v>171</v>
       </c>
@@ -4737,7 +4735,7 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61" spans="1:22" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="60" outlineLevel="1">
       <c r="A61" s="13" t="s">
         <v>109</v>
       </c>
@@ -4788,7 +4786,7 @@
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="30" outlineLevel="1">
       <c r="A62" s="13" t="s">
         <v>127</v>
       </c>
@@ -4840,7 +4838,7 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
     </row>
-    <row r="63" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="30" outlineLevel="1">
       <c r="A63" s="13" t="s">
         <v>128</v>
       </c>
@@ -4892,7 +4890,7 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="30" outlineLevel="1">
       <c r="A64" s="2" t="s">
         <v>170</v>
       </c>
@@ -4944,7 +4942,7 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65" spans="1:22" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="30" outlineLevel="1">
       <c r="A65" s="2" t="s">
         <v>11</v>
       </c>
@@ -4994,7 +4992,7 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66" spans="1:22" ht="29.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="29.25" customHeight="1" outlineLevel="1">
       <c r="A66" s="2" t="s">
         <v>29</v>
       </c>
@@ -5045,7 +5043,7 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="1:22" ht="44.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="44.25" customHeight="1" outlineLevel="1">
       <c r="A67" s="2" t="s">
         <v>26</v>
       </c>
@@ -5096,7 +5094,7 @@
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="1:22" ht="36.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="36.75" customHeight="1" outlineLevel="1">
       <c r="A68" s="2" t="s">
         <v>32</v>
       </c>
@@ -5147,7 +5145,7 @@
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22">
       <c r="A69" s="34" t="s">
         <v>177</v>
       </c>
@@ -5172,7 +5170,7 @@
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
     </row>
-    <row r="70" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="30">
       <c r="A70" s="2" t="s">
         <v>180</v>
       </c>
@@ -5225,7 +5223,7 @@
       </c>
       <c r="V70" s="1"/>
     </row>
-    <row r="71" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="30">
       <c r="A71" s="39" t="s">
         <v>181</v>
       </c>
@@ -5269,7 +5267,7 @@
         <v>43445</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="30">
       <c r="A72" s="42" t="s">
         <v>183</v>
       </c>
@@ -5319,7 +5317,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="45">
       <c r="A73" s="49" t="s">
         <v>288</v>
       </c>
@@ -5374,7 +5372,7 @@
       <c r="T73" s="45"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="30">
       <c r="A74" s="49" t="s">
         <v>289</v>
       </c>
@@ -5428,7 +5426,7 @@
       <c r="T74" s="45"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="60">
       <c r="A75" s="51" t="s">
         <v>290</v>
       </c>
@@ -5480,7 +5478,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="45">
       <c r="A76" s="42" t="s">
         <v>184</v>
       </c>
@@ -5534,7 +5532,7 @@
       <c r="T76" s="45"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="30">
       <c r="A77" s="42" t="s">
         <v>185</v>
       </c>
@@ -5565,7 +5563,7 @@
       <c r="T77" s="45"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="30">
       <c r="A78" s="42" t="s">
         <v>186</v>
       </c>
@@ -5619,7 +5617,7 @@
       <c r="T78" s="45"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="45">
       <c r="A79" s="42" t="s">
         <v>187</v>
       </c>
@@ -5673,7 +5671,7 @@
       <c r="T79" s="45"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="30">
       <c r="A80" s="42" t="s">
         <v>188</v>
       </c>
@@ -5723,7 +5721,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="45">
       <c r="A81" s="48" t="s">
         <v>267</v>
       </c>
@@ -5779,7 +5777,7 @@
       <c r="T81" s="45"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="45">
       <c r="A82" s="48" t="s">
         <v>268</v>
       </c>
@@ -5835,7 +5833,7 @@
       <c r="T82" s="45"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="30">
       <c r="A83" s="42" t="s">
         <v>189</v>
       </c>
@@ -5866,7 +5864,7 @@
       <c r="T83" s="45"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="30">
       <c r="A84" s="42" t="s">
         <v>190</v>
       </c>
@@ -5897,7 +5895,7 @@
       <c r="T84" s="45"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="45">
       <c r="A85" s="42" t="s">
         <v>191</v>
       </c>
@@ -5947,7 +5945,7 @@
         <v>44360</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="45">
       <c r="A86" s="42" t="s">
         <v>192</v>
       </c>
@@ -5997,7 +5995,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="30">
       <c r="A87" s="42" t="s">
         <v>193</v>
       </c>
@@ -6028,7 +6026,7 @@
       <c r="T87" s="45"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="45">
       <c r="A88" s="42" t="s">
         <v>194</v>
       </c>
@@ -6082,7 +6080,7 @@
       <c r="T88" s="45"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="45">
       <c r="A89" s="42" t="s">
         <v>195</v>
       </c>
@@ -6113,7 +6111,7 @@
       <c r="T89" s="45"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="30">
       <c r="A90" s="42" t="s">
         <v>196</v>
       </c>
@@ -6144,7 +6142,7 @@
       <c r="T90" s="45"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="30">
       <c r="A91" s="42" t="s">
         <v>197</v>
       </c>
@@ -6198,7 +6196,7 @@
       <c r="T91" s="45"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="30">
       <c r="A92" s="42" t="s">
         <v>198</v>
       </c>
@@ -6248,7 +6246,7 @@
         <v>43612</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="30">
       <c r="A93" s="42" t="s">
         <v>199</v>
       </c>
@@ -6298,7 +6296,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="30">
       <c r="A94" s="42" t="s">
         <v>200</v>
       </c>
@@ -6348,7 +6346,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="30">
       <c r="A95" s="42" t="s">
         <v>201</v>
       </c>
@@ -6398,7 +6396,7 @@
         <v>43598</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="45">
       <c r="A96" s="42" t="s">
         <v>202</v>
       </c>
@@ -6448,7 +6446,7 @@
         <v>43598</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="30">
       <c r="A97" s="42" t="s">
         <v>203</v>
       </c>
@@ -6498,7 +6496,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="30">
       <c r="A98" s="42" t="s">
         <v>204</v>
       </c>
@@ -6548,7 +6546,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="30">
       <c r="A99" s="42" t="s">
         <v>205</v>
       </c>
@@ -6598,7 +6596,7 @@
         <v>43607</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="30">
       <c r="A100" s="44" t="s">
         <v>206</v>
       </c>
@@ -6648,7 +6646,7 @@
       <c r="T100" s="45"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="30">
       <c r="A101" s="44" t="s">
         <v>206</v>
       </c>
@@ -6698,7 +6696,7 @@
       <c r="T101" s="45"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21">
       <c r="A102" s="44" t="s">
         <v>208</v>
       </c>
@@ -6744,7 +6742,7 @@
       <c r="T102" s="45"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="30">
       <c r="A103" s="44" t="s">
         <v>211</v>
       </c>
@@ -6790,7 +6788,7 @@
       <c r="T103" s="45"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21">
       <c r="A104" s="44" t="s">
         <v>104</v>
       </c>
@@ -6840,7 +6838,7 @@
       <c r="T104" s="45"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21">
       <c r="A105" s="44" t="s">
         <v>104</v>
       </c>
@@ -6890,7 +6888,7 @@
       <c r="T105" s="45"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="30">
       <c r="A106" s="44" t="s">
         <v>219</v>
       </c>
@@ -6936,7 +6934,7 @@
       <c r="T106" s="45"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="30">
       <c r="A107" s="44" t="s">
         <v>223</v>
       </c>
@@ -6982,7 +6980,7 @@
       <c r="T107" s="45"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="30">
       <c r="A108" s="46" t="s">
         <v>232</v>
       </c>
@@ -7019,7 +7017,7 @@
       <c r="T108" s="45"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="45">
       <c r="A109" s="46" t="s">
         <v>233</v>
       </c>
@@ -7056,7 +7054,7 @@
       <c r="T109" s="45"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="30">
       <c r="A110" s="46" t="s">
         <v>234</v>
       </c>
@@ -7093,7 +7091,7 @@
       <c r="T110" s="45"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="60">
       <c r="A111" s="46" t="s">
         <v>235</v>
       </c>
@@ -7130,7 +7128,7 @@
       <c r="T111" s="45"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="30">
       <c r="A112" s="46" t="s">
         <v>236</v>
       </c>
@@ -7169,7 +7167,7 @@
       <c r="T112" s="45"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="45">
       <c r="A113" s="46" t="s">
         <v>237</v>
       </c>
@@ -7208,7 +7206,7 @@
       <c r="T113" s="45"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="30">
       <c r="A114" s="46" t="s">
         <v>238</v>
       </c>
@@ -7247,7 +7245,7 @@
       <c r="T114" s="45"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="30">
       <c r="A115" s="46" t="s">
         <v>242</v>
       </c>
@@ -7286,7 +7284,7 @@
       <c r="T115" s="45"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="30">
       <c r="A116" s="46" t="s">
         <v>243</v>
       </c>
@@ -7323,7 +7321,7 @@
       <c r="T116" s="45"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="30">
       <c r="A117" s="46" t="s">
         <v>244</v>
       </c>
@@ -7360,7 +7358,7 @@
       <c r="T117" s="45"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="30">
       <c r="A118" s="46" t="s">
         <v>245</v>
       </c>
@@ -7397,7 +7395,7 @@
       <c r="T118" s="45"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="30">
       <c r="A119" s="46" t="s">
         <v>246</v>
       </c>
@@ -7434,7 +7432,7 @@
       <c r="T119" s="45"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="30">
       <c r="A120" s="46" t="s">
         <v>247</v>
       </c>
@@ -7471,7 +7469,7 @@
       <c r="T120" s="45"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="30">
       <c r="A121" s="46" t="s">
         <v>248</v>
       </c>
@@ -7508,7 +7506,7 @@
       <c r="T121" s="45"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="30">
       <c r="A122" s="46" t="s">
         <v>249</v>
       </c>
@@ -7545,7 +7543,7 @@
       <c r="T122" s="45"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="30">
       <c r="A123" s="47" t="s">
         <v>250</v>
       </c>
@@ -7582,7 +7580,7 @@
       <c r="T123" s="45"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="30">
       <c r="A124" s="47" t="s">
         <v>251</v>
       </c>
@@ -7619,7 +7617,7 @@
       <c r="T124" s="45"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="30">
       <c r="A125" s="47" t="s">
         <v>252</v>
       </c>
@@ -7656,7 +7654,7 @@
       <c r="T125" s="45"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="30">
       <c r="A126" s="47" t="s">
         <v>253</v>
       </c>
@@ -7693,7 +7691,7 @@
       <c r="T126" s="45"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21">
       <c r="A127" s="48" t="s">
         <v>254</v>
       </c>
@@ -7739,7 +7737,7 @@
       <c r="T127" s="45"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="30">
       <c r="A128" s="48" t="s">
         <v>256</v>
       </c>
@@ -7785,7 +7783,7 @@
       <c r="T128" s="45"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21">
       <c r="A129" s="48" t="s">
         <v>258</v>
       </c>
@@ -7831,7 +7829,7 @@
       <c r="T129" s="45"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="30">
       <c r="A130" s="48" t="s">
         <v>260</v>
       </c>
@@ -7873,7 +7871,7 @@
       <c r="T130" s="45"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="30">
       <c r="A131" s="48" t="s">
         <v>261</v>
       </c>
@@ -7915,7 +7913,7 @@
       <c r="T131" s="45"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="30">
       <c r="A132" s="48" t="s">
         <v>264</v>
       </c>
@@ -7969,7 +7967,7 @@
       <c r="T132" s="45"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="30">
       <c r="A133" s="48" t="s">
         <v>269</v>
       </c>
@@ -8023,7 +8021,7 @@
       <c r="T133" s="45"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" ht="30">
       <c r="A134" s="48" t="s">
         <v>271</v>
       </c>
@@ -8077,7 +8075,7 @@
       <c r="T134" s="45"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" ht="30">
       <c r="A135" s="48" t="s">
         <v>273</v>
       </c>
@@ -8131,7 +8129,7 @@
       <c r="T135" s="45"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="30">
       <c r="A136" s="48" t="s">
         <v>275</v>
       </c>
@@ -8185,7 +8183,7 @@
       <c r="T136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="30">
       <c r="A137" s="49" t="s">
         <v>277</v>
       </c>
@@ -8235,7 +8233,7 @@
         <v>43624</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="30">
       <c r="A138" s="49" t="s">
         <v>282</v>
       </c>
@@ -8286,7 +8284,7 @@
         <v>43621</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="30">
       <c r="A139" s="49" t="s">
         <v>283</v>
       </c>
@@ -8336,7 +8334,7 @@
         <v>43621</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="60">
       <c r="A140" s="51" t="s">
         <v>291</v>
       </c>
@@ -8388,7 +8386,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21">
       <c r="A141" s="39"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8411,7 +8409,7 @@
       <c r="T141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21">
       <c r="A142" s="39"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8434,7 +8432,7 @@
       <c r="T142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21">
       <c r="A143" s="39"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -8457,7 +8455,7 @@
       <c r="T143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21">
       <c r="A144" s="39"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8480,7 +8478,7 @@
       <c r="T144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21">
       <c r="A145" s="39"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -8503,7 +8501,7 @@
       <c r="T145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21">
       <c r="A146" s="39"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -8526,7 +8524,7 @@
       <c r="T146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21">
       <c r="A147" s="39"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -8549,7 +8547,7 @@
       <c r="T147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21">
       <c r="A148" s="39"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -8572,7 +8570,7 @@
       <c r="T148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21">
       <c r="A149" s="39"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -8595,7 +8593,7 @@
       <c r="T149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21">
       <c r="A150" s="39"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -8618,7 +8616,7 @@
       <c r="T150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21">
       <c r="A151" s="39"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -8641,7 +8639,7 @@
       <c r="T151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21">
       <c r="A152" s="39"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8689,14 +8687,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -8705,7 +8703,7 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -8734,7 +8732,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="46.5" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>150</v>
       </c>

--- a/Program_find_insert_file/Уралтест.xlsx
+++ b/Program_find_insert_file/Уралтест.xlsx
@@ -11,7 +11,7 @@
     <sheet name="УНИИМ" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Уралтест!$A$3:$V$140</definedName>
+    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">Уралтест!$A$3:$V$140</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1708,7 +1708,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
+      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -8663,7 +8663,6 @@
       <c r="U152" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:V140"/>
   <sortState ref="A4:V67">
     <sortCondition ref="H4:H67"/>
   </sortState>
